--- a/Dataset/Typed Dataset/1(a) Teachers Answer.xlsx
+++ b/Dataset/Typed Dataset/1(a) Teachers Answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D425666-409D-4EE2-AA3D-47AAD1FAF219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE982E-A340-48D1-A38C-0EEE65CB8597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Briefly explain when you would NOTuse non-linear encoding with PCM</t>
+    <t>When you want quantised levels to have equal spacing, if signals are not sampled at regular intervals and at a rate less than twice the highest signal frequency.</t>
   </si>
   <si>
-    <t>When you want quantised levels to have equal spacing, if signals are not sampled at regular intervals and at a rate less than twice the highest signal frequency.</t>
+    <t>Briefly explain when you would NOT use non-linear encoding with PCM</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,7 +365,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>4</v>
@@ -373,7 +373,7 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>

--- a/Dataset/Typed Dataset/1(a) Teachers Answer.xlsx
+++ b/Dataset/Typed Dataset/1(a) Teachers Answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\PycharmProjects\Essay-Marking-Assistant\Dataset\Typed Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFE982E-A340-48D1-A38C-0EEE65CB8597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095D086-EA7F-495D-89E8-EF5DBF91D7D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>When you want quantised levels to have equal spacing, if signals are not sampled at regular intervals and at a rate less than twice the highest signal frequency.</t>
+    <t>Briefly explain when you would NOT use non-linear encoding with PCM</t>
   </si>
   <si>
-    <t>Briefly explain when you would NOT use non-linear encoding with PCM</t>
+    <t>You would not use non-linear encoding for PCM when the signal has already been sampled at a high enough rate (2X original frequency) maintain all data. This would reduce the need for increase in gradients for quantization as quatization error/noise would be minimal. Also when signal is at a high amplitude only.</t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,15 +365,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>4</v>
